--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H2">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I2">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J2">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N2">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q2">
-        <v>1593.330010715501</v>
+        <v>1588.773872848728</v>
       </c>
       <c r="R2">
-        <v>14339.97009643951</v>
+        <v>14298.96485563855</v>
       </c>
       <c r="S2">
-        <v>0.004882468342294191</v>
+        <v>0.006516982971903753</v>
       </c>
       <c r="T2">
-        <v>0.00488246834229419</v>
+        <v>0.006516982971903755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H3">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I3">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J3">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q3">
-        <v>1573.821002594027</v>
+        <v>1747.020542771371</v>
       </c>
       <c r="R3">
-        <v>14164.38902334624</v>
+        <v>15723.18488494234</v>
       </c>
       <c r="S3">
-        <v>0.004822686555782881</v>
+        <v>0.007166094132950979</v>
       </c>
       <c r="T3">
-        <v>0.00482268655578288</v>
+        <v>0.007166094132950981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H4">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I4">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J4">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N4">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q4">
-        <v>5551.894218123275</v>
+        <v>3890.754293149251</v>
       </c>
       <c r="R4">
-        <v>49967.04796310949</v>
+        <v>35016.78863834326</v>
       </c>
       <c r="S4">
-        <v>0.01701276419665277</v>
+        <v>0.01595946403049222</v>
       </c>
       <c r="T4">
-        <v>0.01701276419665277</v>
+        <v>0.01595946403049222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H5">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I5">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J5">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N5">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O5">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P5">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q5">
-        <v>416.4031829683717</v>
+        <v>391.1061411863636</v>
       </c>
       <c r="R5">
-        <v>3747.628646715345</v>
+        <v>3519.955270677272</v>
       </c>
       <c r="S5">
-        <v>0.00127599137956401</v>
+        <v>0.0016042761691117</v>
       </c>
       <c r="T5">
-        <v>0.001275991379564009</v>
+        <v>0.0016042761691117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H6">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I6">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J6">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N6">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q6">
-        <v>5266.133448908917</v>
+        <v>4150.765312225714</v>
       </c>
       <c r="R6">
-        <v>47395.20104018025</v>
+        <v>37356.88781003143</v>
       </c>
       <c r="S6">
-        <v>0.0161371025949911</v>
+        <v>0.01702600182594978</v>
       </c>
       <c r="T6">
-        <v>0.0161371025949911</v>
+        <v>0.01702600182594978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I7">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J7">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N7">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q7">
-        <v>33928.5818740337</v>
+        <v>30477.50320387677</v>
       </c>
       <c r="R7">
-        <v>305357.2368663033</v>
+        <v>274297.528834891</v>
       </c>
       <c r="S7">
-        <v>0.1039679324338571</v>
+        <v>0.1250155058565205</v>
       </c>
       <c r="T7">
-        <v>0.1039679324338571</v>
+        <v>0.1250155058565206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I8">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J8">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q8">
         <v>33513.15445166727</v>
@@ -948,10 +948,10 @@
         <v>301618.3900650054</v>
       </c>
       <c r="S8">
-        <v>0.1026949310941572</v>
+        <v>0.1374674273216041</v>
       </c>
       <c r="T8">
-        <v>0.1026949310941572</v>
+        <v>0.1374674273216041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I9">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J9">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N9">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q9">
-        <v>118222.7763669507</v>
+        <v>74636.47184878147</v>
       </c>
       <c r="R9">
-        <v>1064004.987302556</v>
+        <v>671728.2466390332</v>
       </c>
       <c r="S9">
-        <v>0.3622720711138534</v>
+        <v>0.306150940945008</v>
       </c>
       <c r="T9">
-        <v>0.3622720711138533</v>
+        <v>0.3061509409450081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I10">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J10">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N10">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O10">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P10">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q10">
-        <v>8866.944946079517</v>
+        <v>7502.602399730054</v>
       </c>
       <c r="R10">
-        <v>79802.50451471565</v>
+        <v>67523.42159757047</v>
       </c>
       <c r="S10">
-        <v>0.02717113071425658</v>
+        <v>0.03077488427999871</v>
       </c>
       <c r="T10">
-        <v>0.02717113071425658</v>
+        <v>0.03077488427999871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I11">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J11">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N11">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q11">
-        <v>112137.7484132487</v>
+        <v>79624.27206526998</v>
       </c>
       <c r="R11">
-        <v>1009239.735719238</v>
+        <v>716618.4485874298</v>
       </c>
       <c r="S11">
-        <v>0.343625616113245</v>
+        <v>0.3266103717259474</v>
       </c>
       <c r="T11">
-        <v>0.3436256161132449</v>
+        <v>0.3266103717259474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H12">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I12">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J12">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N12">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O12">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P12">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q12">
-        <v>7.631317178363668</v>
+        <v>33.314247694239</v>
       </c>
       <c r="R12">
-        <v>68.681854605273</v>
+        <v>299.828229248151</v>
       </c>
       <c r="S12">
-        <v>2.338477545943832E-05</v>
+        <v>0.0001366515327671246</v>
       </c>
       <c r="T12">
-        <v>2.338477545943832E-05</v>
+        <v>0.0001366515327671246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H13">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I13">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J13">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.012288</v>
       </c>
       <c r="O13">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P13">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q13">
-        <v>7.537878011456001</v>
+        <v>36.63244724968533</v>
       </c>
       <c r="R13">
-        <v>67.84090210310401</v>
+        <v>329.692025247168</v>
       </c>
       <c r="S13">
-        <v>2.309844822572723E-05</v>
+        <v>0.00015026243761002</v>
       </c>
       <c r="T13">
-        <v>2.309844822572723E-05</v>
+        <v>0.00015026243761002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H14">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I14">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J14">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N14">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O14">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P14">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q14">
-        <v>26.59101719937867</v>
+        <v>81.58338606550033</v>
       </c>
       <c r="R14">
-        <v>239.319154794408</v>
+        <v>734.250474589503</v>
       </c>
       <c r="S14">
-        <v>8.148330778447166E-05</v>
+        <v>0.0003346464508670443</v>
       </c>
       <c r="T14">
-        <v>8.148330778447165E-05</v>
+        <v>0.0003346464508670443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H15">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I15">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J15">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N15">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O15">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P15">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q15">
-        <v>1.994379533393</v>
+        <v>8.200919643056778</v>
       </c>
       <c r="R15">
-        <v>17.949415800537</v>
+        <v>73.80827678751101</v>
       </c>
       <c r="S15">
-        <v>6.11141123861595E-06</v>
+        <v>3.363930801047401E-05</v>
       </c>
       <c r="T15">
-        <v>6.111411238615948E-06</v>
+        <v>3.3639308010474E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H16">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I16">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J16">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N16">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O16">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P16">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q16">
-        <v>25.22235467978633</v>
+        <v>87.03543411385689</v>
       </c>
       <c r="R16">
-        <v>227.001192118077</v>
+        <v>783.3189070247121</v>
       </c>
       <c r="S16">
-        <v>7.72892918692167E-05</v>
+        <v>0.0003570101773232408</v>
       </c>
       <c r="T16">
-        <v>7.728929186921669E-05</v>
+        <v>0.0003570101773232407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.74316766666666</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H17">
-        <v>185.229503</v>
+        <v>286.186508</v>
       </c>
       <c r="I17">
-        <v>0.01558897584067627</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J17">
-        <v>0.01558897584067626</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N17">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O17">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P17">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q17">
-        <v>562.8328315117659</v>
+        <v>781.1457873994921</v>
       </c>
       <c r="R17">
-        <v>5065.495483605893</v>
+        <v>7030.312086595429</v>
       </c>
       <c r="S17">
-        <v>0.001724698250443406</v>
+        <v>0.003204177688250253</v>
       </c>
       <c r="T17">
-        <v>0.001724698250443406</v>
+        <v>0.003204177688250254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.74316766666666</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H18">
-        <v>185.229503</v>
+        <v>286.186508</v>
       </c>
       <c r="I18">
-        <v>0.01558897584067627</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J18">
-        <v>0.01558897584067626</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.012288</v>
       </c>
       <c r="O18">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P18">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q18">
-        <v>555.9414090147627</v>
+        <v>858.9502639789227</v>
       </c>
       <c r="R18">
-        <v>5003.472681132864</v>
+        <v>7730.552375810305</v>
       </c>
       <c r="S18">
-        <v>0.001703580746882494</v>
+        <v>0.003523323450697161</v>
       </c>
       <c r="T18">
-        <v>0.001703580746882494</v>
+        <v>0.003523323450697161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.74316766666666</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H19">
-        <v>185.229503</v>
+        <v>286.186508</v>
       </c>
       <c r="I19">
-        <v>0.01558897584067627</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J19">
-        <v>0.01558897584067626</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N19">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O19">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P19">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q19">
-        <v>1961.168321706881</v>
+        <v>1912.950847089743</v>
       </c>
       <c r="R19">
-        <v>17650.51489536193</v>
+        <v>17216.55762380769</v>
       </c>
       <c r="S19">
-        <v>0.006009641555890968</v>
+        <v>0.007846722752445277</v>
       </c>
       <c r="T19">
-        <v>0.006009641555890967</v>
+        <v>0.007846722752445277</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>61.74316766666666</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H20">
-        <v>185.229503</v>
+        <v>286.186508</v>
       </c>
       <c r="I20">
-        <v>0.01558897584067627</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J20">
-        <v>0.01558897584067626</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N20">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O20">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P20">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q20">
-        <v>147.0915509934796</v>
+        <v>192.2935162988342</v>
       </c>
       <c r="R20">
-        <v>1323.823958941317</v>
+        <v>1730.641646689508</v>
       </c>
       <c r="S20">
-        <v>0.0004507351498526754</v>
+        <v>0.0007887677363928541</v>
       </c>
       <c r="T20">
-        <v>0.0004507351498526752</v>
+        <v>0.0007887677363928541</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>61.74316766666666</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H21">
-        <v>185.229503</v>
+        <v>286.186508</v>
       </c>
       <c r="I21">
-        <v>0.01558897584067627</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J21">
-        <v>0.01558897584067626</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N21">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O21">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P21">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q21">
-        <v>1860.225301874051</v>
+        <v>2040.789374459815</v>
       </c>
       <c r="R21">
-        <v>16742.02771686646</v>
+        <v>18367.10437013834</v>
       </c>
       <c r="S21">
-        <v>0.005700320137606725</v>
+        <v>0.008371102917717128</v>
       </c>
       <c r="T21">
-        <v>0.005700320137606724</v>
+        <v>0.008371102917717128</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.334605</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H22">
-        <v>4.003814999999999</v>
+        <v>11.596769</v>
       </c>
       <c r="I22">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J22">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N22">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O22">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P22">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q22">
-        <v>12.16587258941833</v>
+        <v>31.653369388731</v>
       </c>
       <c r="R22">
-        <v>109.492853304765</v>
+        <v>284.880324498579</v>
       </c>
       <c r="S22">
-        <v>3.728009098852392E-05</v>
+        <v>0.0001298387850121579</v>
       </c>
       <c r="T22">
-        <v>3.728009098852391E-05</v>
+        <v>0.0001298387850121579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.334605</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H23">
-        <v>4.003814999999999</v>
+        <v>11.596769</v>
       </c>
       <c r="I23">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J23">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.012288</v>
       </c>
       <c r="O23">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P23">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q23">
-        <v>12.01691154208</v>
+        <v>34.80614045527467</v>
       </c>
       <c r="R23">
-        <v>108.15220387872</v>
+        <v>313.255264097472</v>
       </c>
       <c r="S23">
-        <v>3.682362710911842E-05</v>
+        <v>0.0001427711196295035</v>
       </c>
       <c r="T23">
-        <v>3.682362710911841E-05</v>
+        <v>0.0001427711196295035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.334605</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H24">
-        <v>4.003814999999999</v>
+        <v>11.596769</v>
       </c>
       <c r="I24">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J24">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N24">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O24">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P24">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q24">
-        <v>42.39149280649332</v>
+        <v>77.51605495690966</v>
       </c>
       <c r="R24">
-        <v>381.5234352584399</v>
+        <v>697.6444946121869</v>
       </c>
       <c r="S24">
-        <v>0.0001299009748252663</v>
+        <v>0.0003179626873505583</v>
       </c>
       <c r="T24">
-        <v>0.0001299009748252663</v>
+        <v>0.0003179626873505583</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.334605</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H25">
-        <v>4.003814999999999</v>
+        <v>11.596769</v>
       </c>
       <c r="I25">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J25">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N25">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O25">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P25">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q25">
-        <v>3.179446841364999</v>
+        <v>7.792063659113222</v>
       </c>
       <c r="R25">
-        <v>28.61502157228499</v>
+        <v>70.128572932019</v>
       </c>
       <c r="S25">
-        <v>9.742833213817938E-06</v>
+        <v>3.196222385718066E-05</v>
       </c>
       <c r="T25">
-        <v>9.742833213817934E-06</v>
+        <v>3.196222385718065E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.334605</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H26">
-        <v>4.003814999999999</v>
+        <v>11.596769</v>
       </c>
       <c r="I26">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J26">
-        <v>0.0003369623860921186</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N26">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O26">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P26">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q26">
-        <v>40.20956622133166</v>
+        <v>82.69629172478311</v>
       </c>
       <c r="R26">
-        <v>361.886095991985</v>
+        <v>744.2666255230479</v>
       </c>
       <c r="S26">
-        <v>0.000123214859955392</v>
+        <v>0.000339211472582738</v>
       </c>
       <c r="T26">
-        <v>0.000123214859955392</v>
+        <v>0.0003392114725827379</v>
       </c>
     </row>
   </sheetData>
